--- a/Test Design Techniques_Nguyen Huu Tu_.xlsx
+++ b/Test Design Techniques_Nguyen Huu Tu_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRookies\Rookies\mid term - Nguyen Huu Tu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCF2A5-61F6-4D3C-A9CB-68BE8913AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85CEF8-7D07-45A6-B9D1-E9FD2537D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="728">
   <si>
     <t>ID</t>
   </si>
@@ -1904,9 +1904,6 @@
     <t>Save button</t>
   </si>
   <si>
-    <t>When clicking into this button</t>
-  </si>
-  <si>
     <t>Intial status</t>
   </si>
   <si>
@@ -2338,6 +2335,47 @@
   </si>
   <si>
     <t>The newest added address is on the top of the list</t>
+  </si>
+  <si>
+    <t>When clicking into "cancel" button</t>
+  </si>
+  <si>
+    <t>Edit an address</t>
+  </si>
+  <si>
+    <t>Edit successfully when changing all fields</t>
+  </si>
+  <si>
+    <t>Edit successfully when changing a field</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+3. Change valid data in all fields
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+3. Change valid data in a field
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>Edit successfully when there is no chang in all fields</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>Return "address book" screen with the updated address</t>
+  </si>
+  <si>
+    <t>Return "address book" screen with the remained address</t>
+  </si>
+  <si>
+    <t>Return "address book" screen and the new address is added on this screen</t>
   </si>
 </sst>
 </file>
@@ -2650,6 +2688,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,9 +2713,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2681,11 +2722,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2967,17 +3005,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3012,17 +3050,17 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3087,17 +3125,17 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3162,17 +3200,17 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3237,17 +3275,17 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3282,17 +3320,17 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3357,17 +3395,17 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3432,17 +3470,17 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3507,17 +3545,17 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3597,17 +3635,17 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3627,17 +3665,17 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3762,17 +3800,17 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3867,17 +3905,17 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3897,17 +3935,17 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3972,17 +4010,17 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6919,17 +6957,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -6950,16 +6988,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -7325,17 +7363,17 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -7419,17 +7457,17 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="22"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -7680,17 +7718,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -8071,17 +8109,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="52"/>
       <c r="J63" s="22"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -8415,17 +8453,17 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="48" t="s">
+      <c r="A85" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="52"/>
       <c r="J85" s="22"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -8504,17 +8542,17 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="52"/>
       <c r="J90" s="22"/>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
@@ -8760,17 +8798,17 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="50"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="52"/>
       <c r="J106" s="22"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -8819,17 +8857,17 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="52"/>
       <c r="J109" s="22"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -8878,17 +8916,17 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="50"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="52"/>
       <c r="J112" s="22"/>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -9054,17 +9092,17 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="51"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="56"/>
       <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -9219,11 +9257,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A109:I109"/>
     <mergeCell ref="A112:I112"/>
     <mergeCell ref="A121:I121"/>
     <mergeCell ref="A41:I41"/>
@@ -9231,6 +9264,11 @@
     <mergeCell ref="A85:I85"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A109:I109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9301,17 +9339,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -9347,17 +9385,17 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="21"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -9578,17 +9616,17 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -9652,17 +9690,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="51"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -9756,17 +9794,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -9882,17 +9920,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -10180,17 +10218,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DED832-995C-42D4-A46B-4BE115A850FA}">
-  <dimension ref="A1:Z108"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="10" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10241,17 +10279,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -10271,17 +10309,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -10308,10 +10346,10 @@
         <v>222</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>602</v>
       </c>
       <c r="E4" s="4"/>
       <c r="J4" s="23"/>
@@ -10325,10 +10363,10 @@
         <v>534</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="E5" s="4"/>
       <c r="J5" s="23"/>
@@ -10339,13 +10377,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E6" s="4"/>
       <c r="J6" s="23"/>
@@ -10356,13 +10394,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="E7" s="4"/>
       <c r="J7" s="23"/>
@@ -10373,13 +10411,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" s="4"/>
       <c r="J8" s="23"/>
@@ -10396,7 +10434,7 @@
         <v>337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="4"/>
       <c r="J9" s="23"/>
@@ -10413,7 +10451,7 @@
         <v>338</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E10" s="6"/>
       <c r="J10" s="23"/>
@@ -10427,10 +10465,10 @@
         <v>179</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E11" s="6"/>
       <c r="J11" s="23"/>
@@ -10447,7 +10485,7 @@
         <v>332</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E12" s="4"/>
       <c r="J12" s="23"/>
@@ -10461,10 +10499,10 @@
         <v>540</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="E13" s="4"/>
       <c r="J13" s="23"/>
@@ -10481,7 +10519,7 @@
         <v>339</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E14" s="4"/>
       <c r="J14" s="23"/>
@@ -10495,10 +10533,10 @@
         <v>543</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E15" s="4"/>
       <c r="J15" s="23"/>
@@ -10515,7 +10553,7 @@
         <v>342</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E16" s="4"/>
       <c r="J16" s="23"/>
@@ -10532,7 +10570,7 @@
         <v>343</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="4"/>
       <c r="J17" s="23"/>
@@ -10549,7 +10587,7 @@
         <v>345</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E18" s="4"/>
       <c r="J18" s="23"/>
@@ -10566,7 +10604,7 @@
         <v>297</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E19" s="4"/>
       <c r="J19" s="23"/>
@@ -10583,23 +10621,23 @@
         <v>300</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20" s="4"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+        <v>613</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="22"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -10626,10 +10664,10 @@
         <v>165</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E22" s="4"/>
       <c r="J22" s="23"/>
@@ -10643,10 +10681,10 @@
         <v>544</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E23" s="4"/>
       <c r="J23" s="23"/>
@@ -10664,7 +10702,7 @@
         <v>380</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E24" s="4"/>
       <c r="J24" s="23"/>
@@ -10681,7 +10719,7 @@
         <v>381</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E25" s="4"/>
       <c r="J25" s="24"/>
@@ -10698,7 +10736,7 @@
         <v>382</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="4"/>
       <c r="J26" s="23"/>
@@ -10714,7 +10752,7 @@
         <v>241</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E27" s="4"/>
       <c r="J27" s="23"/>
@@ -10731,7 +10769,7 @@
         <v>240</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E28" s="4"/>
       <c r="J28" s="22"/>
@@ -10752,7 +10790,7 @@
         <v>242</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E29" s="4"/>
       <c r="J29" s="22"/>
@@ -10773,7 +10811,7 @@
         <v>243</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E30" s="4"/>
       <c r="J30" s="22"/>
@@ -10794,7 +10832,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E31" s="4"/>
       <c r="J31" s="27"/>
@@ -10811,7 +10849,7 @@
         <v>245</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E32" s="4"/>
       <c r="J32" s="27"/>
@@ -10828,7 +10866,7 @@
         <v>263</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E33" s="4"/>
       <c r="J33" s="27"/>
@@ -10842,10 +10880,10 @@
         <v>180</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E34" s="4"/>
       <c r="J34" s="27"/>
@@ -10859,10 +10897,10 @@
         <v>553</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="4"/>
       <c r="J35" s="27"/>
@@ -10876,10 +10914,10 @@
         <v>141</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36"/>
@@ -10916,7 +10954,7 @@
         <v>409</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37"/>
@@ -10945,14 +10983,14 @@
       <c r="A38" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="22"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -10979,10 +11017,10 @@
         <v>165</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E39" s="4"/>
       <c r="J39" s="23"/>
@@ -10996,10 +11034,10 @@
         <v>555</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E40" s="4"/>
       <c r="J40" s="23"/>
@@ -11014,10 +11052,10 @@
         <v>556</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -11029,10 +11067,10 @@
         <v>557</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11044,10 +11082,10 @@
         <v>558</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -11059,10 +11097,10 @@
         <v>559</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11074,10 +11112,10 @@
         <v>560</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11089,10 +11127,10 @@
         <v>552</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11104,10 +11142,10 @@
         <v>540</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11119,10 +11157,10 @@
         <v>542</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E48" s="4"/>
       <c r="J48" s="23"/>
@@ -11137,10 +11175,10 @@
         <v>548</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11152,10 +11190,10 @@
         <v>549</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11167,10 +11205,10 @@
         <v>550</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11182,10 +11220,10 @@
         <v>551</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -11197,10 +11235,10 @@
         <v>179</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11244,14 +11282,14 @@
       <c r="A55" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="22"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -11278,10 +11316,10 @@
         <v>165</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11290,13 +11328,13 @@
         <v>34</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -11308,10 +11346,10 @@
         <v>562</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>652</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -11323,10 +11361,10 @@
         <v>563</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11338,10 +11376,10 @@
         <v>564</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>655</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11353,10 +11391,10 @@
         <v>565</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11368,10 +11406,10 @@
         <v>566</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11383,10 +11421,10 @@
         <v>567</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>660</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11398,24 +11436,24 @@
         <v>568</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="22"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -11442,10 +11480,10 @@
         <v>165</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11454,13 +11492,13 @@
         <v>43</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11472,7 +11510,7 @@
         <v>570</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>484</v>
@@ -11487,10 +11525,10 @@
         <v>562</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11502,10 +11540,10 @@
         <v>563</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11517,10 +11555,10 @@
         <v>564</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11532,10 +11570,10 @@
         <v>583</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11547,10 +11585,10 @@
         <v>574</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11562,10 +11600,10 @@
         <v>575</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11577,10 +11615,10 @@
         <v>576</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11592,24 +11630,24 @@
         <v>577</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="55"/>
       <c r="J77" s="22"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
@@ -11637,10 +11675,10 @@
         <v>165</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11649,13 +11687,13 @@
         <v>54</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C79" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11667,7 +11705,7 @@
         <v>570</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D80" s="26" t="s">
         <v>484</v>
@@ -11682,7 +11720,7 @@
         <v>572</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D81" s="26" t="s">
         <v>484</v>
@@ -11697,7 +11735,7 @@
         <v>573</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>484</v>
@@ -11712,10 +11750,10 @@
         <v>562</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11727,10 +11765,10 @@
         <v>563</v>
       </c>
       <c r="C84" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>677</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11742,10 +11780,10 @@
         <v>564</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>682</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11757,10 +11795,10 @@
         <v>582</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>684</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
@@ -11772,10 +11810,10 @@
         <v>578</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -11787,10 +11825,10 @@
         <v>579</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -11802,10 +11840,10 @@
         <v>580</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>690</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11817,24 +11855,24 @@
         <v>581</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="22"/>
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
@@ -11861,24 +11899,24 @@
         <v>165</v>
       </c>
       <c r="C92" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D92" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="22"/>
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
@@ -11902,27 +11940,27 @@
         <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C94" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
-      <c r="B95" s="53" t="s">
-        <v>595</v>
-      </c>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="54"/>
+      <c r="B95" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="22"/>
       <c r="K95" s="19"/>
       <c r="L95" s="19"/>
@@ -11947,13 +11985,13 @@
         <v>68</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>700</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11962,13 +12000,13 @@
         <v>69</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
@@ -11977,13 +12015,13 @@
         <v>70</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>703</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11992,27 +12030,27 @@
         <v>71</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="100" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="51"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="56"/>
       <c r="J100" s="21"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -12033,16 +12071,16 @@
     </row>
     <row r="101" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
-      <c r="B101" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
+      <c r="B101" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="55"/>
       <c r="J101" s="22"/>
       <c r="K101" s="19"/>
       <c r="L101" s="19"/>
@@ -12066,13 +12104,13 @@
         <v>72</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="E102" s="4"/>
       <c r="J102" s="23"/>
@@ -12083,13 +12121,13 @@
         <v>73</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="E103" s="4"/>
       <c r="J103" s="23"/>
@@ -12100,13 +12138,13 @@
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="E104" s="4"/>
       <c r="J104" s="23"/>
@@ -12117,13 +12155,13 @@
         <v>75</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E105" s="4"/>
       <c r="J105" s="23"/>
@@ -12134,13 +12172,13 @@
         <v>76</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C106" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>714</v>
       </c>
       <c r="E106" s="4"/>
       <c r="J106" s="23"/>
@@ -12151,42 +12189,120 @@
         <v>77</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C107" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="E107" s="4"/>
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(OFFSET(A108,-1,0) ="",OFFSET(A108,-2,0)+1,OFFSET(A108,-1,0)+1 )</f>
         <v>78</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>586</v>
+        <v>717</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>348</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="54" t="s">
+        <v>718</v>
+      </c>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="19"/>
+    </row>
+    <row r="110" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <f ca="1">IF(OFFSET(A110,-1,0) ="",OFFSET(A110,-2,0)+1,OFFSET(A110,-1,0)+1 )</f>
+        <v>79</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <f ca="1">IF(OFFSET(A111,-1,0) ="",OFFSET(A111,-2,0)+1,OFFSET(A111,-1,0)+1 )</f>
+        <v>80</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <f ca="1">IF(OFFSET(A112,-1,0) ="",OFFSET(A112,-2,0)+1,OFFSET(A112,-1,0)+1 )</f>
+        <v>81</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B109:I109"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B91:I91"/>
     <mergeCell ref="B93:I93"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="B95:I95"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
